--- a/漫展信息/苏州-漫展信息.xlsx
+++ b/漫展信息/苏州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -487,38 +492,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>苏州·世纪幻想动漫游戏展</t>
+          <t>昆山·“不是！你有病吧！”主题展（取消）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>清禾路886号 尹山湖大剧院</t>
+          <t>绿地大道258号游站未来城2号楼 魔之塔</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.01.21 10:30-01.21 17:00</t>
+          <t>2024.01.27 10:00-01.27 19:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1564</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>269</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80053&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79124</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202311/Z7mV6VXN1701160508967.jpeg</t>
         </is>
       </c>
     </row>
@@ -528,38 +536,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>昆山·“不是！你有病吧！”主题展</t>
+          <t>苏州.第二届THO 赤维极陵</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>绿地大道258号游站未来城2号楼 魔之塔</t>
+          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 19:00</t>
+          <t>2024.01.28 10:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>207</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>279</v>
+      </c>
+      <c r="G3" t="n">
+        <v>58</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79124&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79002</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/5AgvDWGQ1700817845950.jpeg</t>
         </is>
       </c>
     </row>
@@ -569,38 +580,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>苏州.第二届THO 赤维极陵</t>
+          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
+          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 21:00</t>
+          <t>2024.02.03 10:00-02.03 20:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>193</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>10788</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79002&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80426</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/IkyhIHPT1704352086775.jpeg</t>
         </is>
       </c>
     </row>
@@ -610,38 +624,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
+          <t>苏州大道东688号 苏州国际博览中心</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 20:00</t>
+          <t>2024.02.03 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3154</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+        <v>9523</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80426&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80084</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/aDe3s9MS1705479547745.jpeg</t>
         </is>
       </c>
     </row>
@@ -651,12 +668,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -666,23 +683,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.02.03 09:30-02.04 17:00</t>
+          <t>2024.02.04 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5828</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>582</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80084&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80398</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/bHsHJ3f21704186294427.jpeg</t>
         </is>
       </c>
     </row>
@@ -692,38 +712,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
+          <t>太仓·弇山夜宴</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>苏州大道东688号 苏州国际博览中心</t>
+          <t>城厢镇县府西街40号公园弄口 弇山园</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.02.04 09:30-02.04 17:00</t>
+          <t>2024.02.08 17:30-02.24 22:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>298</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>39.9</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80398&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81215</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/7QA0z2031705908153925.jpeg</t>
         </is>
       </c>
     </row>
@@ -733,7 +756,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -752,19 +775,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+        <v>697</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80504</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/VHHzVjad1704438989848.jpeg</t>
         </is>
       </c>
     </row>
@@ -774,7 +800,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -793,19 +819,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80248</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/oPrKUOby1703664065719.jpeg</t>
         </is>
       </c>
     </row>
@@ -815,38 +844,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
+          <t>张家港·META萌元漫展</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
+          <t>杨舍镇福新路附近 喜福遇婚庆店</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 16:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81189</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/yhLkC15b1705912912966.jpeg</t>
         </is>
       </c>
     </row>
@@ -856,38 +888,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
+          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
+          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8760</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>49</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80528</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/oWbVnOjD1704445446390.jpeg</t>
         </is>
       </c>
     </row>
@@ -897,38 +932,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.02.25</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>苏州·第五届次元鹿角动漫游戏展</t>
+          <t>太仓·龙狮新春动漫节4.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>清禾路886号 尹山湖大剧院</t>
+          <t>滨河路126号 凯景世纪大酒店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.02.25 10:00-02.25 17:00</t>
+          <t>2024.02.16 08:30-02.16 15:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2353</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81044</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/AMDXVltp1705568031796.jpeg</t>
         </is>
       </c>
     </row>
@@ -938,38 +976,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.04.21</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.04.21 10:00-04.21 21:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>242</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>9502</v>
+      </c>
+      <c r="G13" t="n">
+        <v>60</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79303</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/C3P0Encm1701659824998.jpeg</t>
         </is>
       </c>
     </row>
@@ -979,38 +1020,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展</t>
+          <t>太仓·龙吟动漫游戏展</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+          <t>滨河路128号 凯景世纪大酒店(太仓滨河路店)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.03 17:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5343</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>预售中</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>55</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81242</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/swEzpIAK1705915874840.jpeg</t>
         </is>
       </c>
     </row>
@@ -1020,38 +1064,525 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>苏州·第五届次元鹿角动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>清禾路886号 尹山湖大剧院</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024.02.25 10:00-02.25 17:00</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2426</v>
+      </c>
+      <c r="G15" t="n">
+        <v>68</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79333</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/tqrMA6qB1704787264871.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>苏州·国风宠物-cosplay展</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>木渎金山南路288号 苏州国际影视娱乐城</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024.03.08 09:00-03.10 17:30</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" t="n">
+        <v>65</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80635</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/Rfd9PcBN1704781416369.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>苏州·绘时国乙1.0-秩序之外</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>石路步行街永福桥浜15号 银河广场</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024.04.13 13:30-04.13 20:00</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>69</v>
+      </c>
+      <c r="G17" t="n">
+        <v>78</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80789</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/SjKfDxBh1705041298410.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024.04.21 10:00-04.21 21:00</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>368</v>
+      </c>
+      <c r="G18" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78666</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/X0PZ3YhH1703822037665.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.03 17:00</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>10825</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77196</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202310/9xMTQMlg1696736126094.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024.05.01 10:00-05.02 17:00</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>4451</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
+      <c r="F20" t="n">
+        <v>10732</v>
+      </c>
+      <c r="G20" t="n">
+        <v>65</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79789</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/lau3mW031702535438289.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾北齐后主签售会</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81116</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/EubrAneC1705648695005.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾啊川签售会</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81100</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/F24i5GMX1705646667852.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾漠小然签售会</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81119</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/SDnLB1gR1705648838683.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾葫芦岛老八签售会</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81118</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/uHOCneLv1705648779163.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾沈辞签售会</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024.05.03 14:00-05.03 16:00</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>11</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81120</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/4Pay1rR61705648901961.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾矮乐多aliga签售会</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024.05.03 14:00-05.03 16:00</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81114</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/Peub7FOc1705648580577.jpeg</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,6 +1647,11 @@
       <c r="I1" t="inlineStr">
         <is>
           <t>Link</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1180,6 +1716,11 @@
       <c r="I1" t="inlineStr">
         <is>
           <t>Link</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,6 +1787,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cover</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1253,38 +1799,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>苏州·世纪幻想动漫游戏展</t>
+          <t>昆山·“不是！你有病吧！”主题展（取消）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>清禾路886号 尹山湖大剧院</t>
+          <t>绿地大道258号游站未来城2号楼 魔之塔</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.01.21 10:30-01.21 17:00</t>
+          <t>2024.01.27 10:00-01.27 19:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1564</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>269</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80053&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79124</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202311/Z7mV6VXN1701160508967.jpeg</t>
         </is>
       </c>
     </row>
@@ -1294,38 +1843,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>昆山·“不是！你有病吧！”主题展</t>
+          <t>苏州.第二届THO 赤维极陵</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>绿地大道258号游站未来城2号楼 魔之塔</t>
+          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 19:00</t>
+          <t>2024.01.28 10:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>207</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>279</v>
+      </c>
+      <c r="G3" t="n">
+        <v>58</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79124&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79002</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/5AgvDWGQ1700817845950.jpeg</t>
         </is>
       </c>
     </row>
@@ -1335,38 +1887,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>苏州.第二届THO 赤维极陵</t>
+          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
+          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 21:00</t>
+          <t>2024.02.03 10:00-02.03 20:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>193</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>10788</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79002&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80426</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/IkyhIHPT1704352086775.jpeg</t>
         </is>
       </c>
     </row>
@@ -1376,38 +1931,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
+          <t>苏州大道东688号 苏州国际博览中心</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 20:00</t>
+          <t>2024.02.03 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3154</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+        <v>9523</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80426&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80084</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/aDe3s9MS1705479547745.jpeg</t>
         </is>
       </c>
     </row>
@@ -1417,12 +1975,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1432,23 +1990,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.02.03 09:30-02.04 17:00</t>
+          <t>2024.02.04 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5828</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>582</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80084&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80398</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/bHsHJ3f21704186294427.jpeg</t>
         </is>
       </c>
     </row>
@@ -1458,38 +2019,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
+          <t>太仓·弇山夜宴</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>苏州大道东688号 苏州国际博览中心</t>
+          <t>城厢镇县府西街40号公园弄口 弇山园</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.02.04 09:30-02.04 17:00</t>
+          <t>2024.02.08 17:30-02.24 22:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>298</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>39.9</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80398&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81215</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/7QA0z2031705908153925.jpeg</t>
         </is>
       </c>
     </row>
@@ -1499,7 +2063,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1518,19 +2082,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+        <v>697</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80504&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80504</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/VHHzVjad1704438989848.jpeg</t>
         </is>
       </c>
     </row>
@@ -1540,7 +2107,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1559,19 +2126,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+        <v>95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80248&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80248</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/oPrKUOby1703664065719.jpeg</t>
         </is>
       </c>
     </row>
@@ -1581,38 +2151,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
+          <t>张家港·META萌元漫展</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
+          <t>杨舍镇福新路附近 喜福遇婚庆店</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 16:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80528&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81189</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/yhLkC15b1705912912966.jpeg</t>
         </is>
       </c>
     </row>
@@ -1622,38 +2195,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
+          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
+          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8760</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>49</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79303&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80528</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/oWbVnOjD1704445446390.jpeg</t>
         </is>
       </c>
     </row>
@@ -1663,38 +2239,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.02.25</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>苏州·第五届次元鹿角动漫游戏展</t>
+          <t>太仓·龙狮新春动漫节4.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>清禾路886号 尹山湖大剧院</t>
+          <t>滨河路126号 凯景世纪大酒店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.02.25 10:00-02.25 17:00</t>
+          <t>2024.02.16 08:30-02.16 15:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2353</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79333&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81044</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/AMDXVltp1705568031796.jpeg</t>
         </is>
       </c>
     </row>
@@ -1704,38 +2283,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.04.21</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.04.21 10:00-04.21 21:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>242</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>9502</v>
+      </c>
+      <c r="G13" t="n">
+        <v>60</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78666&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79303</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/C3P0Encm1701659824998.jpeg</t>
         </is>
       </c>
     </row>
@@ -1745,38 +2327,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展</t>
+          <t>太仓·龙吟动漫游戏展</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+          <t>滨河路128号 凯景世纪大酒店(太仓滨河路店)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.03 17:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5343</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>预售中</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>55</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77196&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81242</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/swEzpIAK1705915874840.jpeg</t>
         </is>
       </c>
     </row>
@@ -1786,38 +2371,525 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.05.01</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>苏州·第五届次元鹿角动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>清禾路886号 尹山湖大剧院</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024.02.25 10:00-02.25 17:00</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2426</v>
+      </c>
+      <c r="G15" t="n">
+        <v>68</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79333</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/tqrMA6qB1704787264871.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>苏州·国风宠物-cosplay展</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>木渎金山南路288号 苏州国际影视娱乐城</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024.03.08 09:00-03.10 17:30</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" t="n">
+        <v>65</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80635</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/Rfd9PcBN1704781416369.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>苏州·绘时国乙1.0-秩序之外</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>石路步行街永福桥浜15号 银河广场</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024.04.13 13:30-04.13 20:00</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>69</v>
+      </c>
+      <c r="G17" t="n">
+        <v>78</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80789</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/SjKfDxBh1705041298410.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-04-21</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024.04.21 10:00-04.21 21:00</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>368</v>
+      </c>
+      <c r="G18" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78666</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/X0PZ3YhH1703822037665.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024.05.01 10:00-05.03 17:00</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>10825</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77196</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202310/9xMTQMlg1696736126094.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024.05.01 10:00-05.02 17:00</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>4451</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79789&amp;msource=Msearch_colligation</t>
+      <c r="F20" t="n">
+        <v>10732</v>
+      </c>
+      <c r="G20" t="n">
+        <v>65</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79789</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/lau3mW031702535438289.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾北齐后主签售会</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81116</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/EubrAneC1705648695005.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾啊川签售会</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81100</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/F24i5GMX1705646667852.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾漠小然签售会</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81119</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/SDnLB1gR1705648838683.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾葫芦岛老八签售会</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024.05.02 14:00-05.02 16:00</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81118</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/uHOCneLv1705648779163.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾沈辞签售会</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024.05.03 14:00-05.03 16:00</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>11</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81120</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/4Pay1rR61705648901961.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾矮乐多aliga签售会</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024.05.03 14:00-05.03 16:00</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81114</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/Peub7FOc1705648580577.jpeg</t>
         </is>
       </c>
     </row>

--- a/漫展信息/苏州-漫展信息.xlsx
+++ b/漫展信息/苏州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -492,41 +487,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>昆山·“不是！你有病吧！”主题展（取消）</t>
+          <t>苏州.第二届THO 赤维极陵</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>绿地大道258号游站未来城2号楼 魔之塔</t>
+          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 19:00</t>
+          <t>2024.01.28 10:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79002</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79124</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202311/Z7mV6VXN1701160508967.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/5AgvDWGQ1700817845950.jpeg</t>
         </is>
       </c>
     </row>
@@ -536,41 +528,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>苏州.第二届THO 赤维极陵</t>
+          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
+          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 21:00</t>
+          <t>2024.02.03 10:00-02.03 20:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>279</v>
+        <v>11292</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80426</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79002</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202311/5AgvDWGQ1700817845950.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/IkyhIHPT1704352086775.jpeg</t>
         </is>
       </c>
     </row>
@@ -585,36 +574,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
+          <t>苏州大道东688号 苏州国际博览中心</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 20:00</t>
+          <t>2024.02.03 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10788</v>
+        <v>10584</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80084</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80426</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/IkyhIHPT1704352086775.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/aDe3s9MS1705479547745.jpeg</t>
         </is>
       </c>
     </row>
@@ -624,12 +610,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -639,26 +625,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.02.03 09:30-02.04 17:00</t>
+          <t>2024.02.04 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9523</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>598</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80398</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80084</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/aDe3s9MS1705479547745.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/bHsHJ3f21704186294427.jpeg</t>
         </is>
       </c>
     </row>
@@ -668,41 +653,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
+          <t>太仓·弇山夜宴</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>苏州大道东688号 苏州国际博览中心</t>
+          <t>城厢镇县府西街40号公园弄口 弇山园</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.02.04 09:30-02.04 17:00</t>
+          <t>2024.02.08 17:30-02.24 22:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>39.9</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81215</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80398</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/bHsHJ3f21704186294427.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/7QA0z2031705908153925.jpeg</t>
         </is>
       </c>
     </row>
@@ -712,41 +694,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太仓·弇山夜宴</t>
+          <t>常熟·CDW·动漫展02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>城厢镇县府西街40号公园弄口 弇山园</t>
+          <t>常熟国际展览中心 国际展览中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.02.08 17:30-02.24 22:00</t>
+          <t>2024.02.14 09:00-02.15 17:30</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>753</v>
       </c>
       <c r="G7" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80504</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81215</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/7QA0z2031705908153925.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/VHHzVjad1704438989848.jpeg</t>
         </is>
       </c>
     </row>
@@ -761,36 +740,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>常熟·CDW·动漫展02</t>
+          <t>常熟·漫魂动漫游戏展01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>常熟国际展览中心 国际展览中心</t>
+          <t>虞山北路258号 星程酒店</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.15 17:30</t>
+          <t>2024.02.14 09:00-02.14 21:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>697</v>
+        <v>106</v>
       </c>
       <c r="G8" t="n">
-        <v>55</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80248</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80504</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/VHHzVjad1704438989848.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/oPrKUOby1703664065719.jpeg</t>
         </is>
       </c>
     </row>
@@ -805,36 +781,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>常熟·漫魂动漫游戏展01</t>
+          <t>张家港·META萌元漫展</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>虞山北路258号 星程酒店(长江路店)</t>
+          <t>杨舍镇福新路附近 喜福遇婚庆店</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.14 21:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81189</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80248</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/oPrKUOby1703664065719.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/yhLkC15b1705912912966.jpeg</t>
         </is>
       </c>
     </row>
@@ -849,36 +822,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>张家港·META萌元漫展</t>
+          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>杨舍镇福新路附近 喜福遇婚庆店</t>
+          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80528</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81189</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/yhLkC15b1705912912966.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/oWbVnOjD1704445446390.jpeg</t>
         </is>
       </c>
     </row>
@@ -888,41 +858,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
+          <t>太仓·龙狮新春动漫节4.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
+          <t>滨河路126号 凯景世纪大酒店</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 16:00</t>
+          <t>2024.02.16 08:30-02.16 15:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>49</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81044</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80528</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/oWbVnOjD1704445446390.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/AMDXVltp1705568031796.jpeg</t>
         </is>
       </c>
     </row>
@@ -937,36 +904,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太仓·龙狮新春动漫节4.0</t>
+          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>滨河路126号 凯景世纪大酒店</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.02.16 08:30-02.16 15:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>10509</v>
       </c>
       <c r="G12" t="n">
-        <v>45</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79303</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81044</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/AMDXVltp1705568031796.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/C3P0Encm1701659824998.jpeg</t>
         </is>
       </c>
     </row>
@@ -981,7 +945,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
+          <t>苏州·运动番only专区-Good jump ACG</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -995,22 +959,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9502</v>
+        <v>3242</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81435</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79303</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/C3P0Encm1701659824998.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/gatL3YjP1706236832019.jpeg</t>
         </is>
       </c>
     </row>
@@ -1039,20 +1000,17 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
         <v>55</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81242</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81242</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/swEzpIAK1705915874840.jpeg</t>
         </is>
@@ -1083,20 +1041,17 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2426</v>
+        <v>2447</v>
       </c>
       <c r="G15" t="n">
         <v>68</v>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79333</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79333</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/tqrMA6qB1704787264871.jpeg</t>
         </is>
@@ -1127,20 +1082,17 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
         <v>65</v>
       </c>
-      <c r="H16" t="b">
-        <v>1</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80635</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80635</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202401/Rfd9PcBN1704781416369.jpeg</t>
         </is>
@@ -1152,41 +1104,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>苏州·绘时国乙1.0-秩序之外</t>
+          <t>苏州·世纪幻想动漫游戏展2.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>石路步行街永福桥浜15号 银河广场</t>
+          <t>清禾路886号 尹山湖大剧院</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.04.13 13:30-04.13 20:00</t>
+          <t>2024.03.17 10:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>78</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81387</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80789</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/SjKfDxBh1705041298410.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/m0Q2ZB3L1706153205872.jpeg</t>
         </is>
       </c>
     </row>
@@ -1196,41 +1145,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+          <t>苏州·绘时国乙1.0-秩序之外</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+          <t>石路步行街永福桥浜15号 银河广场</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.04.21 10:00-04.21 21:00</t>
+          <t>2024.04.13 13:30-04.13 20:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>368</v>
+        <v>92</v>
       </c>
       <c r="G18" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80789</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78666</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/X0PZ3YhH1703822037665.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/SjKfDxBh1705041298410.jpeg</t>
         </is>
       </c>
     </row>
@@ -1240,41 +1186,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展</t>
+          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.03 17:00</t>
+          <t>2024.04.21 10:00-04.21 21:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10825</v>
+        <v>404</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
+        <v>48.3</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78666</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77196</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202310/9xMTQMlg1696736126094.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/X0PZ3YhH1703822037665.jpeg</t>
         </is>
       </c>
     </row>
@@ -1289,36 +1232,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
+          <t>昆山·第十二届理想乡动漫游戏展</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
+          <t>2024.05.01 10:00-05.03 17:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10732</v>
+        <v>11078</v>
       </c>
       <c r="G20" t="n">
-        <v>65</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77196</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79789</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/lau3mW031702535438289.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202310/9xMTQMlg1696736126094.png</t>
         </is>
       </c>
     </row>
@@ -1328,41 +1268,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾北齐后主签售会</t>
+          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.05.02 14:00-05.02 16:00</t>
+          <t>2024.05.01 10:00-05.02 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>10821</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79789</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81116</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/EubrAneC1705648695005.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/lau3mW031702535438289.jpeg</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1314,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾啊川签售会</t>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾北齐后主签售会</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1391,22 +1328,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81116</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81100</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/F24i5GMX1705646667852.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/EubrAneC1705648695005.jpeg</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1355,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾漠小然签售会</t>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾啊川签售会</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1435,22 +1369,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81100</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81119</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/SDnLB1gR1705648838683.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/F24i5GMX1705646667852.jpeg</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1396,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾葫芦岛老八签售会</t>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾漠小然签售会</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1479,22 +1410,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81119</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81118</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/uHOCneLv1705648779163.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/SDnLB1gR1705648838683.jpeg</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1432,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾沈辞签售会</t>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾葫芦岛老八签售会</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1519,26 +1447,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.05.03 14:00-05.03 16:00</t>
+          <t>2024.05.02 14:00-05.02 16:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81118</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81120</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/4Pay1rR61705648901961.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/uHOCneLv1705648779163.jpeg</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1478,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾矮乐多aliga签售会</t>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾沈辞签售会</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1567,20 +1492,58 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81120</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/4Pay1rR61705648901961.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾矮乐多aliga签售会</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024.05.03 14:00-05.03 16:00</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81114</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/Peub7FOc1705648580577.jpeg</t>
         </is>
@@ -1597,7 +1560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,15 +1604,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -1666,7 +1624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,15 +1668,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -1735,7 +1688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1779,15 +1732,10 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
         <is>
           <t>Cover</t>
         </is>
@@ -1799,41 +1747,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>昆山·“不是！你有病吧！”主题展（取消）</t>
+          <t>苏州.第二届THO 赤维极陵</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>绿地大道258号游站未来城2号楼 魔之塔</t>
+          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 19:00</t>
+          <t>2024.01.28 10:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79002</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79124</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202311/Z7mV6VXN1701160508967.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202311/5AgvDWGQ1700817845950.jpeg</t>
         </is>
       </c>
     </row>
@@ -1843,41 +1788,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>苏州.第二届THO 赤维极陵</t>
+          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>白塔东路60号(近平江路) 苏州书香府邸平江府</t>
+          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 21:00</t>
+          <t>2024.02.03 10:00-02.03 20:00</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>279</v>
+        <v>11292</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80426</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79002</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202311/5AgvDWGQ1700817845950.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/IkyhIHPT1704352086775.jpeg</t>
         </is>
       </c>
     </row>
@@ -1892,36 +1834,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>【会员购严选】苏州·二次元开放式年会- I COME ACG</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>金山南路288号木渎影视城F2 苏州广电国际会展中心</t>
+          <t>苏州大道东688号 苏州国际博览中心</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 20:00</t>
+          <t>2024.02.03 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10788</v>
+        <v>10584</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80084</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80426</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/IkyhIHPT1704352086775.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/aDe3s9MS1705479547745.jpeg</t>
         </is>
       </c>
     </row>
@@ -1931,12 +1870,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华</t>
+          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1946,26 +1885,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.02.03 09:30-02.04 17:00</t>
+          <t>2024.02.04 09:30-02.04 17:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9523</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>598</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80398</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80084</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/aDe3s9MS1705479547745.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/bHsHJ3f21704186294427.jpeg</t>
         </is>
       </c>
     </row>
@@ -1975,41 +1913,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>苏州·TCD国潮动漫游戏嘉年华吴磊内场</t>
+          <t>太仓·弇山夜宴</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>苏州大道东688号 苏州国际博览中心</t>
+          <t>城厢镇县府西街40号公园弄口 弇山园</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.02.04 09:30-02.04 17:00</t>
+          <t>2024.02.08 17:30-02.24 22:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>39.9</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81215</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80398</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/bHsHJ3f21704186294427.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/7QA0z2031705908153925.jpeg</t>
         </is>
       </c>
     </row>
@@ -2019,41 +1954,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太仓·弇山夜宴</t>
+          <t>常熟·CDW·动漫展02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>城厢镇县府西街40号公园弄口 弇山园</t>
+          <t>常熟国际展览中心 国际展览中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.02.08 17:30-02.24 22:00</t>
+          <t>2024.02.14 09:00-02.15 17:30</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>753</v>
       </c>
       <c r="G7" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80504</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81215</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/7QA0z2031705908153925.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/VHHzVjad1704438989848.jpeg</t>
         </is>
       </c>
     </row>
@@ -2068,36 +2000,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>常熟·CDW·动漫展02</t>
+          <t>常熟·漫魂动漫游戏展01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>常熟国际展览中心 国际展览中心</t>
+          <t>虞山北路258号 星程酒店</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.15 17:30</t>
+          <t>2024.02.14 09:00-02.14 21:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>697</v>
+        <v>106</v>
       </c>
       <c r="G8" t="n">
-        <v>55</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80248</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80504</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/VHHzVjad1704438989848.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/oPrKUOby1703664065719.jpeg</t>
         </is>
       </c>
     </row>
@@ -2112,36 +2041,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>常熟·漫魂动漫游戏展01</t>
+          <t>张家港·META萌元漫展</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>虞山北路258号 星程酒店(长江路店)</t>
+          <t>杨舍镇福新路附近 喜福遇婚庆店</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.02.14 09:00-02.14 21:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81189</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80248</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/oPrKUOby1703664065719.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/yhLkC15b1705912912966.jpeg</t>
         </is>
       </c>
     </row>
@@ -2156,36 +2082,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>张家港·META萌元漫展</t>
+          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>杨舍镇福新路附近 喜福遇婚庆店</t>
+          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
+          <t>2024.02.14 10:00-02.14 16:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80528</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81189</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/yhLkC15b1705912912966.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/oWbVnOjD1704445446390.jpeg</t>
         </is>
       </c>
     </row>
@@ -2195,41 +2118,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>苏州·第一届寒假动漫展宅舞比赛-CF01</t>
+          <t>太仓·龙狮新春动漫节4.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>润元路润南巷172号,地铁二号线陆慕站东200米,近市旅游换乘中心北100米 斐利酒店</t>
+          <t>滨河路126号 凯景世纪大酒店</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 16:00</t>
+          <t>2024.02.16 08:30-02.16 15:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>49</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81044</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80528</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/oWbVnOjD1704445446390.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/AMDXVltp1705568031796.jpeg</t>
         </is>
       </c>
     </row>
@@ -2244,36 +2164,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太仓·龙狮新春动漫节4.0</t>
+          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>滨河路126号 凯景世纪大酒店</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024.02.16 08:30-02.16 15:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>10509</v>
       </c>
       <c r="G12" t="n">
-        <v>45</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79303</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81044</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>//i1.hdslb.com/bfs/openplatform/202401/AMDXVltp1705568031796.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/C3P0Encm1701659824998.jpeg</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2205,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>苏州·Good Jump ACG迎新特别篇X动漫品牌博览会</t>
+          <t>苏州·运动番only专区-Good jump ACG</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2302,22 +2219,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9502</v>
+        <v>3242</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81435</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79303</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/C3P0Encm1701659824998.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/gatL3YjP1706236832019.jpeg</t>
         </is>
       </c>
     </row>
@@ -2346,20 +2260,17 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
         <v>55</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81242</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81242</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/swEzpIAK1705915874840.jpeg</t>
         </is>
@@ -2390,20 +2301,17 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2426</v>
+        <v>2447</v>
       </c>
       <c r="G15" t="n">
         <v>68</v>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79333</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79333</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/tqrMA6qB1704787264871.jpeg</t>
         </is>
@@ -2434,20 +2342,17 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
         <v>65</v>
       </c>
-      <c r="H16" t="b">
-        <v>1</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80635</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80635</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
         <is>
           <t>//i2.hdslb.com/bfs/openplatform/202401/Rfd9PcBN1704781416369.jpeg</t>
         </is>
@@ -2459,41 +2364,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>苏州·绘时国乙1.0-秩序之外</t>
+          <t>苏州·世纪幻想动漫游戏展2.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>石路步行街永福桥浜15号 银河广场</t>
+          <t>清禾路886号 尹山湖大剧院</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.04.13 13:30-04.13 20:00</t>
+          <t>2024.03.17 10:00-03.17 17:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>78</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81387</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80789</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/SjKfDxBh1705041298410.jpeg</t>
+          <t>//i1.hdslb.com/bfs/openplatform/202401/m0Q2ZB3L1706153205872.jpeg</t>
         </is>
       </c>
     </row>
@@ -2503,41 +2405,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
+          <t>苏州·绘时国乙1.0-秩序之外</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
+          <t>石路步行街永福桥浜15号 银河广场</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.04.21 10:00-04.21 21:00</t>
+          <t>2024.04.13 13:30-04.13 20:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>368</v>
+        <v>92</v>
       </c>
       <c r="G18" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80789</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78666</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202312/X0PZ3YhH1703822037665.jpeg</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/SjKfDxBh1705041298410.jpeg</t>
         </is>
       </c>
     </row>
@@ -2547,41 +2446,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展</t>
+          <t>苏州·梦幻岛 国乙主题文化展（日夜场） 梦幻岛之约3.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+          <t>清禾路888号2号楼3楼 格莱美婚礼宴会中心</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.03 17:00</t>
+          <t>2024.04.21 10:00-04.21 21:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10825</v>
+        <v>404</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
+        <v>48.3</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78666</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77196</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202310/9xMTQMlg1696736126094.png</t>
+          <t>//i0.hdslb.com/bfs/openplatform/202312/X0PZ3YhH1703822037665.jpeg</t>
         </is>
       </c>
     </row>
@@ -2596,36 +2492,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
+          <t>昆山·第十二届理想乡动漫游戏展</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>金山南路288号 广电国际会展中心</t>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.05.01 10:00-05.02 17:00</t>
+          <t>2024.05.01 10:00-05.03 17:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10732</v>
+        <v>11078</v>
       </c>
       <c r="G20" t="n">
-        <v>65</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77196</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79789</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202312/lau3mW031702535438289.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202310/9xMTQMlg1696736126094.png</t>
         </is>
       </c>
     </row>
@@ -2635,41 +2528,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾北齐后主签售会</t>
+          <t>苏州·第十七届 I COME ACG  动漫品牌博览会</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+          <t>金山南路288号 广电国际会展中心</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.05.02 14:00-05.02 16:00</t>
+          <t>2024.05.01 10:00-05.02 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>10821</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79789</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81116</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/EubrAneC1705648695005.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202312/lau3mW031702535438289.jpeg</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2574,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾啊川签售会</t>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾北齐后主签售会</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2698,22 +2588,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81116</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81100</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/F24i5GMX1705646667852.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/EubrAneC1705648695005.jpeg</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2615,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾漠小然签售会</t>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾啊川签售会</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2742,22 +2629,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81100</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81119</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/SDnLB1gR1705648838683.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/F24i5GMX1705646667852.jpeg</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2656,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾葫芦岛老八签售会</t>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾漠小然签售会</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2786,22 +2670,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81119</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81118</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>//i2.hdslb.com/bfs/openplatform/202401/uHOCneLv1705648779163.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/SDnLB1gR1705648838683.jpeg</t>
         </is>
       </c>
     </row>
@@ -2811,12 +2692,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾沈辞签售会</t>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾葫芦岛老八签售会</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2826,26 +2707,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.05.03 14:00-05.03 16:00</t>
+          <t>2024.05.02 14:00-05.02 16:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81118</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=81120</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>//i0.hdslb.com/bfs/openplatform/202401/4Pay1rR61705648901961.jpeg</t>
+          <t>//i2.hdslb.com/bfs/openplatform/202401/uHOCneLv1705648779163.jpeg</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2738,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>昆山·第十二届理想乡动漫游戏展嘉宾矮乐多aliga签售会</t>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾沈辞签售会</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2874,20 +2752,58 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81120</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>//i0.hdslb.com/bfs/openplatform/202401/4Pay1rR61705648901961.jpeg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>昆山·第十二届理想乡动漫游戏展嘉宾矮乐多aliga签售会</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>花桥经济开发区绿地大道1598号 花桥国际博览中心</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024.05.03 14:00-05.03 16:00</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81114</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>//i1.hdslb.com/bfs/openplatform/202401/Peub7FOc1705648580577.jpeg</t>
         </is>
